--- a/data/trans_bre/P20D1_R_2023-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P20D1_R_2023-Habitat-trans_bre.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>60.45130604683898</v>
+        <v>60.45130604683896</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>10.58552451167587</v>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>33.88922799809689</v>
+        <v>35.73427806974895</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>1.902339189621654</v>
+        <v>1.693548860512822</v>
       </c>
     </row>
     <row r="6">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>81.08594056401456</v>
+        <v>81.18288527179878</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -599,7 +599,7 @@
         <v>38.51643827353075</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>2.563465053202751</v>
+        <v>2.563465053202752</v>
       </c>
     </row>
     <row r="8">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.528386518037185</v>
+        <v>7.898442474046635</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.227493115528326</v>
+        <v>-0.08649334733130823</v>
       </c>
     </row>
     <row r="9">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>67.03754341047315</v>
+        <v>70.70462819699826</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>17.30208290526532</v>
+        <v>18.10451849454616</v>
       </c>
     </row>
     <row r="10">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-11.89876108943533</v>
+        <v>-10.6971870611934</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.6140535290765596</v>
+        <v>-0.5602483189599597</v>
       </c>
     </row>
     <row r="12">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>55.64472694773954</v>
+        <v>57.39733885686645</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -689,7 +689,7 @@
         <v>30.94580552647751</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>2.174153437647534</v>
+        <v>2.174153437647535</v>
       </c>
     </row>
     <row r="14">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>9.199343948357988</v>
+        <v>8.06842014415605</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2096017790878385</v>
+        <v>0.1684983034254657</v>
       </c>
     </row>
     <row r="15">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>52.52498285239199</v>
+        <v>52.08818429710968</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11.33154875171277</v>
+        <v>13.90511822382364</v>
       </c>
     </row>
     <row r="16">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>38.68640156302595</v>
+        <v>38.68640156302596</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>3.022341424798265</v>
@@ -746,10 +746,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>24.79736177811656</v>
+        <v>24.94339985814292</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.9244016906194455</v>
+        <v>1.211181095605292</v>
       </c>
     </row>
     <row r="18">
@@ -760,10 +760,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>53.3549673081141</v>
+        <v>53.38702727823329</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6.847872957269728</v>
+        <v>7.697486171470699</v>
       </c>
     </row>
     <row r="19">
